--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/41_İzmir_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/41_İzmir_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89AE62EF-0C42-4405-88E2-773F78B82707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1EDFB22-818C-4E84-83AF-C6A7552782B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C03B29D-5E73-4FFC-8225-99EF99BC1CD8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A9E3E11-051D-4CD6-881E-7B43D7B65352}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{155D2CEC-7B1E-46F5-9FF2-614E5C7D7CA0}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{740833D9-12BA-4B2C-9B2D-DC59A3AD8B33}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{6406435D-5C88-4D20-9D44-43FE8973B95A}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{8C7F7E34-91E8-4663-9266-BC740A36CA7E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{2E808F5C-C4C4-48DF-A563-A815B7496146}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{2E222CCD-822F-451F-A355-F5983136229F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{291B3D69-DBCC-4410-A942-12A378A878FA}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{1BA9F784-82BA-4912-9C15-2FDE51A8715F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8E2A8C-680F-4455-A284-5B507C7D0579}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DB7C2B-748F-4E15-AB75-1B37EF39B6B8}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -2518,18 +2518,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B4EEBA07-4C15-4246-8702-88BC7EAA13F1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{82481281-74CC-4C40-86F0-5D36436F77B3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{294BCCF1-8415-489A-A12F-3AA167C0C4FB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{966ED1AF-A8EB-4FDE-BF63-F31320A851C0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C8067EBF-0FBE-4B7B-B281-4BE3F18C9CF7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{55EBDB97-346E-41CD-B6E8-44C55ED20CA2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7A963157-86F9-403C-849A-54D5670C6399}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6BFB1DC8-6858-4ED1-802B-5A78F882D138}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D4585487-4289-4120-8919-AF6D44FAFD10}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AC2AD784-2255-44F1-956F-BE479BA98473}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CEE8EB21-0863-4820-812B-6034070F300B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{19680257-3E18-4E1F-A74F-48757A777E70}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4A584A41-F812-42EF-97BE-67DDD370C94D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3F23FD50-6844-4C85-A8AA-FA7005807DD8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{27D0024A-D8B0-4994-9802-072650BE95C6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3467941B-58BA-4F96-90FF-71006913E204}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9B0FF7B5-B633-423B-9DCF-33A816D969D5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B46D29AE-3D9B-44F2-9693-1F4C5A4BAE00}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{30ADEA46-0A14-44B4-BED8-359234201574}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D88F61E3-7C0D-4DAA-B2E5-43C140135FD2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4903A305-FF27-40F3-8AEF-60497A37677D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7F5FE28C-AF11-44D7-ADA1-6F561076F432}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B8B2021B-84C9-475A-9247-50D81DF42A84}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C92A2AC1-D367-490E-8507-0ED6E6B6F155}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2542,7 +2542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069756EC-B164-4803-A65C-401F6ED067C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF86259-2901-48A9-866D-C82030952B0A}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -3820,18 +3820,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AFE87734-6FB5-41F0-A79D-FC239E56B486}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{85DB3B26-491F-4531-9F25-70E58CB54379}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{959E6827-F276-423D-B922-7ADDA6D5626F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{532A918A-F6BE-4C4E-A118-D8A6708E7306}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FEEC69E4-3154-4F8B-939A-FF93F033F29A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D51F101F-9DDB-47C1-A747-898056AF6C2C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{ED8133EA-9AA6-4C8D-8951-70F06FC75023}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{68B7274B-0110-4D57-A602-CF17BA925A1E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7C164985-404F-48FA-A94E-CD9D73708B5D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{95DEEDBB-B03B-41C9-B0F7-A159785F48AF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B531EC22-ACA7-47E5-8790-2E92559631A5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{ACE6ADCB-7F62-4605-A88C-F5216433C351}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{65AFE3C7-042D-4315-8376-5C9E67EA7BE6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{558C2665-7561-489D-9507-91CB5B19AB57}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A7B2F6A9-D9FF-4D88-80D8-7610EABB1E46}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FD7B2444-57B4-4D6E-AE0F-65F0A6A8FCB2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1AE6C20F-1A35-4178-A640-D85410E51ECB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2BB5FCBB-371A-48B0-A5F0-1F095D9C0117}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C6AA227A-5993-4A0F-B445-E423DD759606}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{70C9E596-14DC-4E81-8F7E-0C6CE4A0495D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2C8B2BEA-0672-4AF2-8B93-CA42B9E4CF88}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{007FD238-70A2-492B-AA6F-C6B6F173CCC8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{53A4A342-A350-4252-8439-8947B65ACC70}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D5C68DBD-4B2C-4654-9456-2D8A665D433B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3844,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300A3BEA-8E81-45E8-8711-7903F3608A5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CA3757-BF92-435E-A25F-16E3F608D4B2}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -5106,18 +5106,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EA5BF6C8-43B9-4588-9577-813B40E9E659}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B61417F7-E778-40B4-84A6-72932AA0280F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DC06C326-31A0-4B40-AF15-DCE19F8E7E9C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{94465F88-C203-4B18-8BA0-DD6C8CAD7177}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A93E1C6B-F950-46E0-B196-B6CFEBA67293}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6D2D0F8D-DC18-47F1-806F-CF25D6105337}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{04422850-6E54-415A-B14C-A79905C0CBCF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A4530522-6FAB-444A-8EE4-A9002E43697F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9AD31096-04F1-46C0-AFF0-CEC4E32B7A29}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C7509B40-26FF-44B4-9398-0952B79743D4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2D643D72-B9E7-4228-9F45-6B5D426DCAE6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CF54130C-AA08-4CD7-B6A1-110C8A5772A5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2E8035C7-20AB-4806-83CF-22595B54D9A6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9B4281B1-0DCD-4A56-8F4A-7CF30910B6EA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{45440AA9-1521-4A5A-99A4-1A95B64BD271}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9B9AC9DD-02B1-4A3F-8DC7-444C9EDDAFCA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F1730853-B78C-43B2-AE24-D8B2B26B05FB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{92E71732-ACA8-4A08-A71B-CCF92DF44340}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4F9924D0-40AC-4E06-8639-E7676FAD1775}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D01FD755-AB94-4868-9789-E9C110671E36}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E2C0B0E2-B2B7-48E4-AAAA-3A53C312EB0D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{80AAF53A-7A9E-4F98-8ED0-F4667FED2804}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F8FDA74A-7E2F-425D-B364-BD30B1F2133C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E7D9774E-547A-4E47-BAA5-7AE9901C784C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5130,7 +5130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7096B554-8BF3-4B07-806F-81C28E156FEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD52E86-C2BA-4861-A768-8DEDF9049B40}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -6382,18 +6382,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{452A5CFF-CE12-4F22-979A-99412C3071DD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0E845F09-74A2-4A5B-81E2-C292ACBC3255}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9BD4DA7C-BEE0-48ED-B4D8-E6DC24FD24B3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{73CBC4DB-74EC-4B30-A043-F69F010886E9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{49A8F9AC-39AF-4146-BF85-07FC31CE146C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2C7D061F-CF12-4057-A57C-9AD23E7A22E1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DEC8BE62-C734-4CA1-AC31-3FEC24E2EB83}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3EEA0A79-0A05-47DA-B9E5-1E533328885B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A68C0A63-13A7-4721-954F-1ED91F5AB967}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D6A50089-0C92-47F1-8705-6F0B27D1FFC9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CCE25CCD-6347-493E-ABAE-FDF848EBE580}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{514BB9CB-2CE8-4013-993C-E765A626A379}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A940E1B9-9BDE-462E-A30A-D3A54186C0B4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D083CCF4-1A7F-4E0B-B174-2521DEE68ADC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6E02E7A2-DD38-4391-A817-BFF6E38C59CE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{730E606E-0224-47B1-B328-8EFCF9407A7B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E9B422D5-7D89-4EB6-B2E4-9F8F5F7A2CEA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{760C90AD-93AA-41DA-B83D-D70E1759B7DC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{71142075-02F1-4A4C-B7E5-FFDAED026850}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2E330F43-5559-4401-A0DA-21A87A1E249A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0E7BD91A-8188-4639-BAC2-72E6A0FBE51A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2A07C5A8-B124-4A18-BE51-155DFEED649D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EB5473B1-D2B9-48B1-B792-8E9B6E312713}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E43D41C9-9592-471E-8C8C-95AEE700FC23}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6406,7 +6406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E73B44-583D-432A-9B95-37C9E4C21033}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FEF43D-350D-4983-B4B7-8785D431527B}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -7690,18 +7690,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A2827013-9220-4B71-9A22-21A3045EE6D3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{20AFA08A-1A7A-4439-A748-8A60CFE6274A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9713BE31-F71D-464D-B950-2C12499CB8BE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BFE674F9-B653-43D9-94E0-2F19DC6E2E0E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CDB155B3-D9AA-4772-AB76-DCD1A1089917}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F56C3E17-328C-4628-B747-F2D038638DD7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CC80D7C4-C021-4685-B3F3-707AB58B55BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5789DBD0-92BA-4613-B8D4-3018CC4D9CFC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{296D5BB0-014C-4C2B-BB57-C07FE30342E4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{019E01E9-02F6-425A-A008-DA500F51FFF0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{57070D57-68CD-4850-A959-F11C81ABA10D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A192F5AA-281B-414C-977A-F756B78D48C1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5D7B47A4-123A-4039-8467-EF2AF7019578}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{011AAEB5-C1BB-4158-BF64-66C96F1E91A3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4A997D25-9D8B-4F4A-9235-727048EE2F79}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{38040BDB-B932-4682-BAC0-345532A47E74}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{29EF4769-9B19-4F25-8380-5BB3CB2C9AAE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{31B8A066-66EC-4E10-9B4D-11ECB2F74CC6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{43E67492-BACA-4F5C-BA7E-5553E149B0F7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2B45C9C7-E4CE-4F8E-B212-3D63097C5C32}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5804E551-F070-48C9-8D24-E2B5A5D02D43}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7127BF05-FA07-4DFA-9DAB-4FF41B12D4AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7AB7B6B1-13E8-4F6E-894C-D4A02BE084D5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3EF52A4C-88C0-4EC0-8C30-1F8296055EC0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7714,7 +7714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2E4261-3F2B-4632-9407-DB694E34B26F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE0FFFD-3209-4048-A765-45862CCAB9A5}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -8998,18 +8998,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A3CF57A9-B5BD-4A3D-94F6-EF7E4A8500FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0E947AAB-2B1E-4C74-A9F6-422E6861B954}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1A98A8C3-3F45-446D-ACE1-C8957E904B3E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0F1538EC-B22C-4D09-9C52-5B959E4E9002}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1F7EFED8-0937-42F6-9D69-9B9C7AB5D085}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9D8F4B1E-4F48-4B27-A015-6F07E6E3058A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E4922CF6-E7A0-4ACD-9872-A2A23EE432C5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{24E969AA-FA4A-4A6E-991D-60DD4C5596E9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{56406A20-B35F-4FC5-B6F0-ECC622507BB6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3D009A04-D6F1-4860-ACA6-642F8D0EB5DD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0096C375-DB4A-43A9-87B8-E08E4607DDDC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4DAC2327-42E3-440F-BB4F-E56AD96ECF98}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1062F71C-0ED4-43F6-9C8C-94560895073D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E4FC86BD-4CC2-4E87-BCE3-6F7962C60359}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{815FCAAE-4147-41C9-84A2-6E0994A9868E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8E35F8EC-3DA4-4391-8A53-C1016123565E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C9EB04EE-3BC9-437B-986D-6B19B398A002}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{ABA7197B-6796-44F2-87D1-F81BCA563AA1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{58ADE580-5AF1-4D3A-AE09-F79350B6F7C6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CE31B723-E646-4874-A752-9B463A8CACFB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AFA84B3A-0123-45EE-B142-0960C5A3E716}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6F2C58E4-9FB4-4695-9B93-3182855AC4C2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0F52A618-3C6D-4EA8-B317-B15AD5BCC69E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{241576D6-9E3D-4B82-AAD0-B341214F1C86}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9022,7 +9022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECE3984-E610-4C8D-BF56-6B3E2FA8C3DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2D4A29-6736-41FC-A35E-E74F33A23566}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -10304,18 +10304,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{24CED270-9A63-45C8-B7A1-56203A59FB52}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{65C71CA5-14F7-427E-9BC1-63A383E86328}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{30414081-881F-44E2-936D-CFC5E82BBD78}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A120B974-D908-4E6A-9799-5D18CBBED4CA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A4C4518A-F0CF-482C-A804-3EB8843DEDD6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B648D2BA-1E63-4921-9BEE-8A30782A8BA2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{79D2E255-71FE-4B50-B31F-75EDD8A8C21B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C1589E0B-0D59-4EBE-86D8-608A260F0705}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9EBEF848-22E7-4392-90CE-1363BB4406C9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A18FAAF7-6C78-4CFD-A54E-02DB3578E099}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{307B7D0F-3679-46B6-9B97-E669821719CB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0037E4A5-15A7-425E-9886-F757AC21DB91}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D69FBCF6-9631-447D-A7F7-D7DB1609C7F4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{78950A7E-ADC1-4A84-8037-D65189606ABF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5AAB5A23-14EB-4643-89D2-B0364B1782B7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{25EDA3EB-4ACA-457D-ADFE-EA5D44BDF6C3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{395CC04C-2E61-4B61-A4D8-D8FA9719008D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0B707607-0C03-4708-A198-16EC656C3FF9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{50BB67DC-759C-48F7-AF24-3C4BE71B186A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BD38AD67-A9B4-4009-98FC-F2B2C77F3BF9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6DEC4944-85E4-406F-8277-54B43A6EBE4B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4E5B0339-5793-423B-BFA8-D11F2F4CE136}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{93E76B71-9E3F-4F58-B09B-18FE3A0A5254}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7887E7C8-D2C3-450B-8E10-0A40DFC11E96}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10328,7 +10328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F14FA7-04C6-4946-B8C0-9A680C709B95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96407388-6BFE-4B0E-A819-C109B6F776E0}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -11612,18 +11612,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8983E3DB-9D98-4DF1-B806-3FD392EAEED3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D835C36D-4F90-4DB0-B673-86518BE83A2E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8BF70B4D-C40E-468D-905A-BAA6F0738CED}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8159C6CB-3269-4120-9B4D-4F9794EC376F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2B1A00E5-4246-4671-B910-8F79F8747EF2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{50DCBD3F-016C-416F-BD99-08E0E03BCEFC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FE87731C-5DC7-42C6-B0BC-7F9AE16BCEB9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A580FC3D-0874-48F4-AF98-A1018C6E2329}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C1A85C47-DF0F-4738-9A8B-16DCD5344B9C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F9F638D0-26FF-454C-9B89-E565BF2D6276}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{765B1536-E857-4224-A866-E0033CFE4EE6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AC9B9F2D-BEF4-4294-B0FA-307B961FC284}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{26D4E059-DFAE-4946-8BAD-3CEFBF47C7B4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{68085FAB-924D-4741-B10D-90928E69662F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3BE1F41D-E35C-4577-AC05-B77FA0EB94F4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2A54EE10-BE0F-4558-8B1B-F5ECFB0FB658}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B9C1FE1A-0E48-4E34-AA62-9DE8D20E8560}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B175CADF-EC99-4B1A-8D5E-4AC6793DFBF2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BB5A3E90-9BC1-44F0-A7C6-F6668527EFF2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{379539CE-1220-426A-BFB0-C2D3761768E8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{19B49471-1C1E-4E0D-A014-E1B580C5D896}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9DC48227-4B9A-4AE7-8CBE-D1A325F32C07}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0541BC39-3F1D-44A5-BFCD-F6A642CEBCEB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6C86CC31-59B8-49EC-BCB6-ED977C620B65}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11636,7 +11636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E99A3-450C-437A-82EA-7C2ABDCE4F3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1C2EE1-3889-4589-94C3-F74D95133178}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -12920,18 +12920,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A46F562E-C7B3-4680-8A1C-E3B3560747AB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F8126B66-6A5A-437E-BD7F-E11D3BE2CA21}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{40D5D65D-013C-4140-9D2F-547E806303A6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B67CDBD0-E8DA-4184-9EF4-D3178EF054C6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{06F58805-22C1-44A0-B9A5-090100349AA2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EE4CC89A-33C8-47A4-8F85-09F53A959F45}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8DC27882-E891-409A-8B49-BC64BAD61B6A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F3287AEA-D307-499B-9ED5-0BF53609B031}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C5AEBADD-6792-4847-9AD7-A859965C8B29}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3465E535-8752-4D38-9909-7F72E56298B6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FF3EF50A-BDD0-4B47-9B77-01F8D271867F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{08C04054-441B-4411-8EEB-1C2E64449979}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FE75F648-3951-4180-9631-187ACC6BC470}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{30B3AA6A-92BB-4A90-8AD3-3137153ACFE3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C5E76535-1885-40BD-B36F-0895DA72A73A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D2F787F4-36BB-4A2A-A2A1-202E37010C27}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CF96CF73-7709-4636-A641-26F6836B6505}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5F2E27D1-96BD-4002-A6B9-9CA78812F4E5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B346E584-8F05-42F6-B11D-10F77D56B91E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BD3872CF-172F-4141-A9C3-689123F5AD98}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DD4A91B9-3810-4A98-A7B2-C228C67AC516}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{425F5A6B-235A-404C-A2FF-ED4F1217E3EB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C98E3FB4-E1B8-466E-8C29-2E47CA8BB8C4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C0A0276A-29EF-4ADD-BB62-30405B9C0273}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12944,7 +12944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A515300D-79B6-428B-A8E1-18E23173E6A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C467F4-05B8-425A-98EC-27FE3E3FF258}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -14222,18 +14222,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4E07CF57-F967-4C15-A4F5-F4C74285A1C2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{39432847-5FF5-4444-92EA-916E67C1F524}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AA8EC3C5-5AC4-4034-BF59-463FB63FD88D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{229E43C6-1109-42EF-93A3-7C362D6D2332}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D9B08464-7747-4BBD-9A92-AACEEC666E89}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B3DCD330-FA3A-4648-B4C8-5D656BC450F0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D25E2B01-B000-4AE2-A42F-B8C60E6B5F66}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{03B9169B-E45E-48D3-B956-B66CA2285A60}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{30191C5F-5E65-4616-81CB-40490570ACE3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2475E2FB-13B0-48E1-907C-752784223722}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{81D71DB7-BBB3-4ABF-AEF0-0B5D3BFC06B3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{821F1B90-7069-421A-9D68-7AABFA83E541}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B2EDD4C4-3F53-46ED-885C-0ED5CE823240}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AC56C37E-1E6A-4E79-92A0-9E191E35EA15}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8347D916-4EBE-4A64-988D-144F103197D4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B566276A-3163-4FB3-862D-C20AF8B9B9A3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0B1C8CF1-2A6B-43F8-AAA7-05FF76AB214A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{358C5B7E-09E9-4173-B63A-3EA6117EFFAA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0CF7119F-23FD-4D17-AB9A-3267771F9F42}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{452B70D9-2F48-4E98-9901-43B6E778F809}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5FB5C435-843B-4AF6-BB1C-D52446EB6BE7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C24B1074-47C5-4DC2-9082-6FFB41FCA7CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FF027929-E7F4-48EB-9E2D-5C4CB5C623CE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5EA902C6-7B2E-4DAD-86AE-3674F8973678}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14246,7 +14246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A3A1C9-5408-495F-AF44-B60B60DF0AD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC94D9E-86A2-4F00-97D9-DAB795C99F0B}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -15524,18 +15524,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3506797F-7A8E-40C6-BF01-5DB3983F57D7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CF5F089F-4C04-4C30-9F4A-32070D5A818B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{18C4F80B-5174-482B-8895-19C89D1A9CD1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{93146B0C-619F-459F-B49E-3343019EE34F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F85F3B6C-0692-4A4A-BA85-674FE1DD0412}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B2D9F745-3B60-4B74-8ECA-E382CA725279}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{306DCD3D-DE73-4DDA-80AB-785388D8DD7B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ADA24561-9950-4653-826B-54398F51EAE0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{19286373-9559-4580-851E-D4EBA6DB259A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E0106FBE-BA71-4F18-A5E6-198F3A068A40}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{633FB4BA-AC79-4BB5-82AB-D4F11A74F31C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C56DA3D0-0EFC-4E57-B560-A14CA33006CF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{37A8CFC9-C8A9-43F9-8329-E91930382F9C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{569710E7-3FFC-43DE-AA49-4286B9F102B8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E7F7499F-A02D-4A1F-AF2F-669D35C66807}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DFB2FC5E-0E1C-4E2D-8006-2873D85F3D91}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3C4722B4-581B-4A27-8D4F-F54BC04E0F05}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5C09F902-1400-400D-BFD4-4691CBDF56ED}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AE6ECCDD-7C72-4EEC-B268-AFED2F24825E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{198A4BE3-F26C-4822-BA27-2C19FBB27465}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9CA2137F-464A-4B67-8093-28E8DFC45AE5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E497318A-B343-4C78-859E-63D0C1840A90}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F5C27BAA-2F8D-43D5-A5B7-7058B353E8C4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3FD9FB8A-D31B-4F66-AF35-18455D1C91A2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15548,7 +15548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEDB3DF-8C9E-4C29-A0FC-6D5D62CC3F71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53205D43-DA18-4CC1-A091-69D7E828CCC5}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -16826,18 +16826,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0EB18C91-8724-444C-87F5-9E2E5F80EC1A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F9F0CB65-9B44-4B8E-A121-F8E0E94E4EE2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{55CF0FBF-CA07-460D-BD71-26C9953D70F8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A145F5A8-3653-48BA-8005-0AD64D87B184}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9B9520B8-16E1-4A03-887F-41255BFE76D8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{06DE9128-6589-4F52-BC97-528493CBD97D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2B841D67-C63D-4EAE-BD4F-59003B028212}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{23BC5D39-5AF0-42F2-ACF6-405D2F49B1BB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8F68739B-5B27-4D6E-BB31-FA888467B5C5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B162E836-E754-4BB9-886C-94539C009991}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{03F37275-C0CC-4A1C-8A86-6A8230DB44D8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B8E6DF56-2D5A-44EB-B35A-FE108505D7B7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{171575BE-EF70-4C46-A6CF-A3EF40071ABD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DD16FD13-327F-421F-9FAE-9B72A9EDE32D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{232F6473-1CA4-44AB-A94B-97F36CE846C3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{92BDE3A9-4460-43C4-A216-A344910A4619}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{01E6E9CA-F52E-49B2-9486-DC5E3DAAC7BC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E24EB970-F8A3-4123-AF26-0039C9AA191B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4189E2EE-72A0-4DFA-85B4-A2B795D3162D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{53F79416-32AE-48B6-AC18-FD033F720D9A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E319DBF3-FC11-4FF2-99DE-A09BC3E4BAAA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{44DA0E9F-1484-4AAD-AF26-3BD389D379F4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6A9DFFB7-7F0B-401B-B41B-77EA3B802D88}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7AB69076-10D7-48D3-92E9-B9900095D715}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
